--- a/Todo.xlsx
+++ b/Todo.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <pivotCaches>
+    <pivotCache cacheId="31" r:id="rId5"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>To do</t>
   </si>
@@ -45,9 +49,6 @@
     <t>Qty</t>
   </si>
   <si>
-    <t>2 pin locking header and socket</t>
-  </si>
-  <si>
     <t>Connection from regulator board to Lighting Control Uno</t>
   </si>
   <si>
@@ -60,30 +61,12 @@
     <t>Connect scooter switch to Mega via relay and NPN</t>
   </si>
   <si>
-    <t>Connect speed controller to Nano</t>
-  </si>
-  <si>
     <t>Connect speed Nano to scooter controller</t>
   </si>
   <si>
     <t>Connect main LCD</t>
   </si>
   <si>
-    <t>Heavy duty cable</t>
-  </si>
-  <si>
-    <t>2m</t>
-  </si>
-  <si>
-    <t>3 pin connector and socket for case</t>
-  </si>
-  <si>
-    <t>1 pair</t>
-  </si>
-  <si>
-    <t>3 pin locking header and socket for Mega shield</t>
-  </si>
-  <si>
     <t>Mount DB9 connectors for lighting and control</t>
   </si>
   <si>
@@ -123,15 +106,6 @@
     <t>Connect LED LCD to controller</t>
   </si>
   <si>
-    <t>Heatshrink</t>
-  </si>
-  <si>
-    <t>Heaavy duty hookup</t>
-  </si>
-  <si>
-    <t>20m</t>
-  </si>
-  <si>
     <t>Case up LED controller</t>
   </si>
   <si>
@@ -151,6 +125,39 @@
   </si>
   <si>
     <t>Mount main control case</t>
+  </si>
+  <si>
+    <t>4 pin microphone connector pair</t>
+  </si>
+  <si>
+    <t>Connect speed controller to speed Nano</t>
+  </si>
+  <si>
+    <t>3 pin locking header and socket pair</t>
+  </si>
+  <si>
+    <t>Heavy duty cable red (m)</t>
+  </si>
+  <si>
+    <t>Heavy duty cable black (m)</t>
+  </si>
+  <si>
+    <t>Heatshrink (m)</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Qty</t>
+  </si>
+  <si>
+    <t>Medium duty hookup cable (m)</t>
   </si>
 </sst>
 </file>
@@ -222,13 +229,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -243,6 +255,320 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="prepress2" refreshedDate="41395.392276967592" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="41">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C1:D42" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Parts Needed" numFmtId="0">
+      <sharedItems containsBlank="1" count="14">
+        <m/>
+        <s v="Heavy duty cable red (m)"/>
+        <s v="Heavy duty cable black (m)"/>
+        <s v="4 pin microphone connector pair"/>
+        <s v="10uF smoothing caps"/>
+        <s v="100nF smoothing caps"/>
+        <s v="30A power connectors (genderless)"/>
+        <s v="Crimps for battery terminals"/>
+        <s v="Switch"/>
+        <s v="3 pin locking header and socket pair"/>
+        <s v="Metal DB9 cases"/>
+        <s v="DB9 screw hardware"/>
+        <s v="Heatshrink (m)"/>
+        <s v="Medium duty hookup cable (m)"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Qty" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1" maxValue="20" count="7">
+        <m/>
+        <n v="1"/>
+        <n v="5"/>
+        <n v="4"/>
+        <n v="1.5"/>
+        <n v="2"/>
+        <n v="20"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="41">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="6"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="15">
+        <item x="5"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Qty" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,10 +858,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A3:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="6">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,6 +1014,7 @@
     <col min="1" max="1" width="57.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
     <col min="3" max="3" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -568,227 +1040,319 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
       <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
+        <v>39</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
       <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
       <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>20</v>
+        <v>39</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -802,4 +1366,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Todo.xlsx
+++ b/Todo.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="31" r:id="rId5"/>
+    <pivotCache cacheId="32" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -471,7 +471,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -1006,7 +1006,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1095,7 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">

--- a/Todo.xlsx
+++ b/Todo.xlsx
@@ -14,13 +14,13 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="32" r:id="rId5"/>
+    <pivotCache cacheId="40" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>To do</t>
   </si>
@@ -158,13 +158,22 @@
   </si>
   <si>
     <t>Medium duty hookup cable (m)</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>Qty on hand</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,16 +197,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -223,31 +253,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -258,7 +327,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="prepress2" refreshedDate="41395.392276967592" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="41">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="prepress2" refreshedDate="41395.494508564814" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="41">
   <cacheSource type="worksheet">
     <worksheetSource ref="C1:D42" sheet="Sheet1"/>
   </cacheSource>
@@ -282,15 +351,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Qty" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1" maxValue="20" count="7">
-        <m/>
-        <n v="1"/>
-        <n v="5"/>
-        <n v="4"/>
-        <n v="1.5"/>
-        <n v="2"/>
-        <n v="20"/>
-      </sharedItems>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="1" maxValue="20"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -305,173 +366,173 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="41">
   <r>
     <x v="0"/>
+    <m/>
+  </r>
+  <r>
     <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
     <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="4"/>
   </r>
   <r>
     <x v="1"/>
-    <x v="1"/>
+    <n v="1.5"/>
   </r>
   <r>
     <x v="2"/>
-    <x v="1"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="3"/>
-    <x v="1"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="1"/>
+  </r>
+  <r>
     <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="1"/>
   </r>
   <r>
     <x v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="1"/>
+  </r>
+  <r>
     <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
   </r>
   <r>
     <x v="12"/>
-    <x v="5"/>
+    <n v="2"/>
   </r>
   <r>
     <x v="13"/>
-    <x v="6"/>
+    <n v="20"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0">
@@ -493,18 +554,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="8">
-        <item x="1"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
@@ -562,6 +612,11 @@
   <dataFields count="1">
     <dataField name="Sum of Qty" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -858,146 +913,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B18"/>
+  <dimension ref="A3:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="C3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="7">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="7">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="6">
-        <v>60</v>
-      </c>
+      <c r="B18" s="7">
+        <v>67</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1005,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,9 +1108,10 @@
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
     <col min="3" max="3" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,17 +1122,25 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1048,27 +1150,48 @@
       <c r="D4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>D4-E4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F51" si="0">D5-E5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>35</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1078,16 +1201,30 @@
       <c r="D8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1097,8 +1234,15 @@
       <c r="D11">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1108,16 +1252,30 @@
       <c r="D12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>35</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1285,15 @@
       <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1138,35 +1303,63 @@
       <c r="D17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1176,8 +1369,15 @@
       <c r="D22">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
@@ -1185,7 +1385,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1195,11 +1395,18 @@
       <c r="D28" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1209,16 +1416,30 @@
       <c r="D30" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1231,6 +1452,13 @@
       <c r="D33" s="3">
         <v>1</v>
       </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1242,6 +1470,13 @@
       <c r="D35" s="3">
         <v>1</v>
       </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -1251,6 +1486,13 @@
       <c r="D36" s="3">
         <v>1</v>
       </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="M36" s="3"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -1263,6 +1505,13 @@
       <c r="D38">
         <v>2</v>
       </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1274,6 +1523,13 @@
       <c r="D39">
         <v>1</v>
       </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D40" s="3"/>
@@ -1288,6 +1544,13 @@
       <c r="D41">
         <v>2</v>
       </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -1299,6 +1562,13 @@
       <c r="D42">
         <v>20</v>
       </c>
+      <c r="E42">
+        <v>16</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -1323,6 +1593,10 @@
       <c r="D47">
         <v>2</v>
       </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -1334,20 +1608,36 @@
       <c r="D48">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>34</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
